--- a/results/facies_metrics.xlsx
+++ b/results/facies_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,31 +505,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003821281599059377</v>
+        <v>0.0009553203997648442</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.25</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="H2" t="n">
-        <v>6351456.119999999</v>
+        <v>1224258.825</v>
       </c>
       <c r="I2" t="n">
-        <v>914395.59</v>
+        <v>1094911.035</v>
       </c>
       <c r="J2" t="n">
-        <v>11.073453125</v>
+        <v>8.025160250000001</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -546,31 +546,31 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>2075</v>
+        <v>658</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1524838330393886</v>
+        <v>0.04835390946502058</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1307</v>
+        <v>402</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6298795180722891</v>
+        <v>0.6109422492401215</v>
       </c>
       <c r="H3" t="n">
-        <v>1123949821.005</v>
+        <v>588039648.54</v>
       </c>
       <c r="I3" t="n">
-        <v>793394498.22</v>
+        <v>362026044.09</v>
       </c>
       <c r="J3" t="n">
-        <v>205.687529125</v>
+        <v>283.3668011249999</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -587,31 +587,31 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>417</v>
+        <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03064373897707231</v>
+        <v>0.06062610229276896</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>411</v>
+        <v>630</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9856115107913669</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="H4" t="n">
-        <v>512137669.995</v>
+        <v>862604390.1899999</v>
       </c>
       <c r="I4" t="n">
-        <v>504627676.1399999</v>
+        <v>618946027.71</v>
       </c>
       <c r="J4" t="n">
-        <v>205.329652375</v>
+        <v>145.135227375</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -625,40 +625,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>836</v>
+        <v>176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06143445032333921</v>
+        <v>0.01293356848912404</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>277</v>
+        <v>108</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3313397129186603</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="H5" t="n">
-        <v>229513969.905</v>
+        <v>244744216.47</v>
       </c>
       <c r="I5" t="n">
-        <v>90552383.22</v>
+        <v>148760892.465</v>
       </c>
       <c r="J5" t="n">
-        <v>9.215613750000003</v>
+        <v>86.10904525000001</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -666,37 +666,37 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="n">
-        <v>302</v>
+        <v>690</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02219282774838331</v>
+        <v>0.05070546737213404</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>183</v>
+        <v>443</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6059602649006622</v>
+        <v>0.6420289855072464</v>
       </c>
       <c r="H6" t="n">
-        <v>178767271.875</v>
+        <v>286245491.895</v>
       </c>
       <c r="I6" t="n">
-        <v>79346072.93999998</v>
+        <v>221546767.47</v>
       </c>
       <c r="J6" t="n">
-        <v>67.28797049999999</v>
+        <v>17.448340125</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -707,40 +707,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001396237507348618</v>
+        <v>0.05922986478542034</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>598</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="H7" t="n">
-        <v>42474340.12500001</v>
+        <v>647355608.76</v>
       </c>
       <c r="I7" t="n">
-        <v>42474340.12500001</v>
+        <v>468626125.755</v>
       </c>
       <c r="J7" t="n">
-        <v>12.54878299999999</v>
+        <v>263.9677615000001</v>
       </c>
       <c r="K7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -748,40 +748,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>269</v>
+        <v>799</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01976778365667255</v>
+        <v>0.05871546149323927</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>61</v>
+        <v>731</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2267657992565056</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="H8" t="n">
-        <v>62721845.73</v>
+        <v>1097154328.86</v>
       </c>
       <c r="I8" t="n">
-        <v>29198552.01</v>
+        <v>936944519.2049999</v>
       </c>
       <c r="J8" t="n">
-        <v>42.0050995</v>
+        <v>146.505885125</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -789,34 +789,34 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B9" t="n">
-        <v>349</v>
+        <v>68</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0256466784244562</v>
+        <v>0.004997060552616108</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5759312320916905</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="H9" t="n">
-        <v>165620492.91</v>
+        <v>24118137.87</v>
       </c>
       <c r="I9" t="n">
-        <v>163315549.89</v>
+        <v>19865891.94</v>
       </c>
       <c r="J9" t="n">
-        <v>127.086025125</v>
+        <v>28.548591875</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -830,40 +830,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B10" t="n">
-        <v>676</v>
+        <v>300</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0496766607877719</v>
+        <v>0.02204585537918871</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>515</v>
+        <v>205</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7618343195266272</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>497036463.825</v>
+        <v>177263019.78</v>
       </c>
       <c r="I10" t="n">
-        <v>379067107.83</v>
+        <v>172904399.88</v>
       </c>
       <c r="J10" t="n">
-        <v>81.72296287499999</v>
+        <v>232.877220125</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -871,34 +871,34 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B11" t="n">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009038800705467372</v>
+        <v>0.007863021751910641</v>
       </c>
       <c r="D11" t="n">
+        <v>14</v>
+      </c>
+      <c r="E11" t="n">
         <v>2</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
       <c r="F11" t="n">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8211382113821138</v>
+        <v>0.3457943925233645</v>
       </c>
       <c r="H11" t="n">
-        <v>105474758.925</v>
+        <v>110470830.885</v>
       </c>
       <c r="I11" t="n">
-        <v>89929263.94499999</v>
+        <v>31900476.495</v>
       </c>
       <c r="J11" t="n">
-        <v>140.491410875</v>
+        <v>275.5111175000001</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -912,40 +912,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="B12" t="n">
-        <v>5948</v>
+        <v>292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4370958259847149</v>
+        <v>0.02145796590241035</v>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>3396</v>
+        <v>102</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5709482178883658</v>
+        <v>0.3493150684931507</v>
       </c>
       <c r="H12" t="n">
-        <v>2364487957.11</v>
+        <v>404390238.78</v>
       </c>
       <c r="I12" t="n">
-        <v>1552701491.235</v>
+        <v>90551416.605</v>
       </c>
       <c r="J12" t="n">
-        <v>96.46026400000001</v>
+        <v>179.420444375</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -953,40 +953,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" t="n">
-        <v>419</v>
+        <v>4914</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0307907113462669</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>156</v>
+        <v>2939</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3723150357995227</v>
+        <v>0.598087098087098</v>
       </c>
       <c r="H13" t="n">
-        <v>263870626.515</v>
+        <v>3628839798.03</v>
       </c>
       <c r="I13" t="n">
-        <v>121705603.77</v>
+        <v>2490952574.07</v>
       </c>
       <c r="J13" t="n">
-        <v>59.25504537499999</v>
+        <v>70.52327874999999</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -994,42 +994,83 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>232</v>
+      </c>
+      <c r="B14" t="n">
+        <v>43</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.003159905937683716</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>27</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6279069767441861</v>
+      </c>
+      <c r="H14" t="n">
+        <v>33277910.835</v>
+      </c>
+      <c r="I14" t="n">
+        <v>20511615.885</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8.000907374999997</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>241</v>
       </c>
-      <c r="B14" t="n">
-        <v>2123</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1560111699000588</v>
-      </c>
-      <c r="D14" t="n">
-        <v>17</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1796</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.8459726801695714</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1859686216.785</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1639711327.875</v>
-      </c>
-      <c r="J14" t="n">
-        <v>249.3225145000001</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="b">
+      <c r="B15" t="n">
+        <v>3917</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2878453850676073</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3869</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9877457237681899</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4150479237.375</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4110361108.56</v>
+      </c>
+      <c r="J15" t="n">
+        <v>318.87274925</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
         <v>0</v>
       </c>
     </row>

--- a/results/facies_metrics.xlsx
+++ b/results/facies_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,34 +502,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003821281599059377</v>
+        <v>0.01734273956496179</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="G2" t="n">
-        <v>0.25</v>
+        <v>0.8601694915254238</v>
       </c>
       <c r="H2" t="n">
-        <v>6351456.119999999</v>
+        <v>152781170.73</v>
       </c>
       <c r="I2" t="n">
-        <v>914395.59</v>
+        <v>148151608.17</v>
       </c>
       <c r="J2" t="n">
-        <v>11.073453125</v>
+        <v>117.3624325</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -543,34 +543,34 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>2075</v>
+        <v>997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1524838330393886</v>
+        <v>0.07326572604350381</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1307</v>
+        <v>447</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6298795180722891</v>
+        <v>0.4483450351053159</v>
       </c>
       <c r="H3" t="n">
-        <v>1123949821.005</v>
+        <v>535151838.555</v>
       </c>
       <c r="I3" t="n">
-        <v>793394498.22</v>
+        <v>312546171.57</v>
       </c>
       <c r="J3" t="n">
-        <v>205.687529125</v>
+        <v>160.742222125</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -584,34 +584,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>417</v>
+        <v>1199</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03064373897707231</v>
+        <v>0.08810993533215755</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>411</v>
+        <v>668</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9856115107913669</v>
+        <v>0.5571309424520434</v>
       </c>
       <c r="H4" t="n">
-        <v>512137669.995</v>
+        <v>526407805.875</v>
       </c>
       <c r="I4" t="n">
-        <v>504627676.1399999</v>
+        <v>373250978.415</v>
       </c>
       <c r="J4" t="n">
-        <v>205.329652375</v>
+        <v>186.268323875</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -625,40 +625,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>836</v>
+        <v>498</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06143445032333921</v>
+        <v>0.03659611992945326</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>277</v>
+        <v>491</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3313397129186603</v>
+        <v>0.9859437751004017</v>
       </c>
       <c r="H5" t="n">
-        <v>229513969.905</v>
+        <v>467706987.015</v>
       </c>
       <c r="I5" t="n">
-        <v>90552383.22</v>
+        <v>457644479.085</v>
       </c>
       <c r="J5" t="n">
-        <v>9.215613750000003</v>
+        <v>183.58267825</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -666,40 +666,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02219282774838331</v>
+        <v>0.007642563198118754</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6059602649006622</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>178767271.875</v>
+        <v>92043152.86499999</v>
       </c>
       <c r="I6" t="n">
-        <v>79346072.93999998</v>
+        <v>92043152.86499999</v>
       </c>
       <c r="J6" t="n">
-        <v>67.28797049999999</v>
+        <v>136.701384</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -707,34 +707,34 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001396237507348618</v>
+        <v>0.008450911228689007</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="H7" t="n">
-        <v>42474340.12500001</v>
+        <v>13214884.815</v>
       </c>
       <c r="I7" t="n">
-        <v>42474340.12500001</v>
+        <v>5921260.125000001</v>
       </c>
       <c r="J7" t="n">
-        <v>12.54878299999999</v>
+        <v>26.32299275</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -748,34 +748,34 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>269</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01976778365667255</v>
+        <v>0.0002204585537918871</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2267657992565056</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>62721845.73</v>
+        <v>54320.04000000023</v>
       </c>
       <c r="I8" t="n">
-        <v>29198552.01</v>
+        <v>54320.04000000023</v>
       </c>
       <c r="J8" t="n">
-        <v>42.0050995</v>
+        <v>3.261130374999993</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -789,81 +789,81 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="B9" t="n">
-        <v>349</v>
+        <v>5568</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0256466784244562</v>
+        <v>0.4091710758377425</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>201</v>
+        <v>5559</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5759312320916905</v>
+        <v>0.9983836206896551</v>
       </c>
       <c r="H9" t="n">
-        <v>165620492.91</v>
+        <v>1788656925.81</v>
       </c>
       <c r="I9" t="n">
-        <v>163315549.89</v>
+        <v>1786319001.57</v>
       </c>
       <c r="J9" t="n">
-        <v>127.086025125</v>
+        <v>155.96440275</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>676</v>
+        <v>363</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0496766607877719</v>
+        <v>0.02667548500881834</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>515</v>
+        <v>278</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7618343195266272</v>
+        <v>0.7658402203856749</v>
       </c>
       <c r="H10" t="n">
-        <v>497036463.825</v>
+        <v>242296910.07</v>
       </c>
       <c r="I10" t="n">
-        <v>379067107.83</v>
+        <v>204737494.275</v>
       </c>
       <c r="J10" t="n">
-        <v>81.72296287499999</v>
+        <v>141.556825875</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -871,34 +871,34 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009038800705467372</v>
+        <v>0.00102880658436214</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8211382113821138</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>105474758.925</v>
+        <v>22195235.04</v>
       </c>
       <c r="I11" t="n">
-        <v>89929263.94499999</v>
+        <v>22195235.04</v>
       </c>
       <c r="J11" t="n">
-        <v>140.491410875</v>
+        <v>7.681281249999984</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -912,40 +912,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="B12" t="n">
-        <v>5948</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4370958259847149</v>
+        <v>0.002204585537918871</v>
       </c>
       <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>13</v>
       </c>
-      <c r="E12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3396</v>
-      </c>
       <c r="G12" t="n">
-        <v>0.5709482178883658</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>2364487957.11</v>
+        <v>14527547.52</v>
       </c>
       <c r="I12" t="n">
-        <v>1552701491.235</v>
+        <v>9126480.314999998</v>
       </c>
       <c r="J12" t="n">
-        <v>96.46026400000001</v>
+        <v>71.60508500000003</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -953,34 +953,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="B13" t="n">
-        <v>419</v>
+        <v>44</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0307907113462669</v>
+        <v>0.003233392122281011</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3723150357995227</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="H13" t="n">
-        <v>263870626.515</v>
+        <v>6620115.540000003</v>
       </c>
       <c r="I13" t="n">
-        <v>121705603.77</v>
+        <v>2288339.490000001</v>
       </c>
       <c r="J13" t="n">
-        <v>59.25504537499999</v>
+        <v>19.21623424999999</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -994,42 +994,206 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>121</v>
+      </c>
+      <c r="B14" t="n">
+        <v>233</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0171222810111699</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>144</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6180257510729614</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5084589.585000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3638034.975</v>
+      </c>
+      <c r="J14" t="n">
+        <v>55.99504475000001</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131</v>
+      </c>
+      <c r="B15" t="n">
+        <v>163</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0119782480893592</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>123</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.754601226993865</v>
+      </c>
+      <c r="H15" t="n">
+        <v>66001156.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>52167107.25</v>
+      </c>
+      <c r="J15" t="n">
+        <v>54.26491312500001</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>161</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0008818342151675485</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>13771903.62</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13771903.62</v>
+      </c>
+      <c r="J16" t="n">
+        <v>80.55050112500003</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>231</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2861</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.210243974132863</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1814</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6340440405452639</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1039103367.99</v>
+      </c>
+      <c r="I17" t="n">
+        <v>733720735.5599999</v>
+      </c>
+      <c r="J17" t="n">
+        <v>76.44208862500001</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>241</v>
       </c>
-      <c r="B14" t="n">
-        <v>2123</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1560111699000588</v>
-      </c>
-      <c r="D14" t="n">
-        <v>17</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1796</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.8459726801695714</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1859686216.785</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1639711327.875</v>
-      </c>
-      <c r="J14" t="n">
-        <v>249.3225145000001</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="b">
+      <c r="B18" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.08583186360964139</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.961472602739726</v>
+      </c>
+      <c r="H18" t="n">
+        <v>918968580.99</v>
+      </c>
+      <c r="I18" t="n">
+        <v>887187485.4449999</v>
+      </c>
+      <c r="J18" t="n">
+        <v>213.275465125</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/results/facies_metrics.xlsx
+++ b/results/facies_metrics.xlsx
@@ -505,31 +505,31 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>236</v>
+        <v>399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01734273956496179</v>
+        <v>0.02932098765432099</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8601694915254238</v>
+        <v>0.5037593984962406</v>
       </c>
       <c r="H2" t="n">
-        <v>152781170.73</v>
+        <v>204404809.77</v>
       </c>
       <c r="I2" t="n">
-        <v>148151608.17</v>
+        <v>163315549.89</v>
       </c>
       <c r="J2" t="n">
-        <v>117.3624325</v>
+        <v>127.086025125</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -546,31 +546,31 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>997</v>
+        <v>1370</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07326572604350381</v>
+        <v>0.1006760728982951</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4483450351053159</v>
+        <v>0.362043795620438</v>
       </c>
       <c r="H3" t="n">
-        <v>535151838.555</v>
+        <v>770489457.66</v>
       </c>
       <c r="I3" t="n">
-        <v>312546171.57</v>
+        <v>352048895.43</v>
       </c>
       <c r="J3" t="n">
-        <v>160.742222125</v>
+        <v>185.069852375</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -587,31 +587,31 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>1199</v>
+        <v>816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08810993533215755</v>
+        <v>0.05996472663139329</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>668</v>
+        <v>312</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5571309424520434</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="H4" t="n">
-        <v>526407805.875</v>
+        <v>427804574.01</v>
       </c>
       <c r="I4" t="n">
-        <v>373250978.415</v>
+        <v>227724660.96</v>
       </c>
       <c r="J4" t="n">
-        <v>186.268323875</v>
+        <v>170.0192585</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -628,31 +628,31 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>498</v>
+        <v>412</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03659611992945326</v>
+        <v>0.03027630805408583</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>491</v>
+        <v>406</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9859437751004017</v>
+        <v>0.9854368932038835</v>
       </c>
       <c r="H5" t="n">
-        <v>467706987.015</v>
+        <v>509260913.1899999</v>
       </c>
       <c r="I5" t="n">
-        <v>457644479.085</v>
+        <v>501750919.3349999</v>
       </c>
       <c r="J5" t="n">
-        <v>183.58267825</v>
+        <v>205.329652375</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -669,31 +669,31 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007642563198118754</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="H6" t="n">
-        <v>92043152.86499999</v>
+        <v>105433637.22</v>
       </c>
       <c r="I6" t="n">
-        <v>92043152.86499999</v>
+        <v>90750911.47499999</v>
       </c>
       <c r="J6" t="n">
-        <v>136.701384</v>
+        <v>140.491410875</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -710,37 +710,37 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>115</v>
+        <v>888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008450911228689007</v>
+        <v>0.06525573192239859</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>58</v>
+        <v>291</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5043478260869565</v>
+        <v>0.3277027027027027</v>
       </c>
       <c r="H7" t="n">
-        <v>13214884.815</v>
+        <v>234776761.605</v>
       </c>
       <c r="I7" t="n">
-        <v>5921260.125000001</v>
+        <v>92170876.095</v>
       </c>
       <c r="J7" t="n">
-        <v>26.32299275</v>
+        <v>10.473847875</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -748,40 +748,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5882</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002204585537918871</v>
+        <v>0.4322457378012934</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>3024</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.5141108466507991</v>
       </c>
       <c r="H8" t="n">
-        <v>54320.04000000023</v>
+        <v>2413769935.215</v>
       </c>
       <c r="I8" t="n">
-        <v>54320.04000000023</v>
+        <v>1497026210.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.261130374999993</v>
+        <v>68.60252137499999</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -789,75 +789,75 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>5568</v>
+        <v>109</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4091710758377425</v>
+        <v>0.008009994121105233</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>5559</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9983836206896551</v>
+        <v>0.8623853211009175</v>
       </c>
       <c r="H9" t="n">
-        <v>1788656925.81</v>
+        <v>94344537.72000001</v>
       </c>
       <c r="I9" t="n">
-        <v>1786319001.57</v>
+        <v>83287556.26500002</v>
       </c>
       <c r="J9" t="n">
-        <v>155.96440275</v>
+        <v>105.287617375</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02667548500881834</v>
+        <v>0.001396237507348618</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7658402203856749</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>242296910.07</v>
+        <v>42474340.12500001</v>
       </c>
       <c r="I10" t="n">
-        <v>204737494.275</v>
+        <v>42474340.12500001</v>
       </c>
       <c r="J10" t="n">
-        <v>141.556825875</v>
+        <v>12.54878299999999</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -871,40 +871,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00102880658436214</v>
+        <v>0.01690182245737801</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="H11" t="n">
-        <v>22195235.04</v>
+        <v>103443516.495</v>
       </c>
       <c r="I11" t="n">
-        <v>22195235.04</v>
+        <v>95004176.44499999</v>
       </c>
       <c r="J11" t="n">
-        <v>7.681281249999984</v>
+        <v>67.28797049999999</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -912,34 +912,34 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002204585537918871</v>
+        <v>0.005217519106407996</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="H12" t="n">
-        <v>14527547.52</v>
+        <v>21447387.54</v>
       </c>
       <c r="I12" t="n">
-        <v>9126480.314999998</v>
+        <v>18412863.255</v>
       </c>
       <c r="J12" t="n">
-        <v>71.60508500000003</v>
+        <v>42.0050995</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -953,34 +953,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B13" t="n">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003233392122281011</v>
+        <v>0.01087595532039977</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3409090909090909</v>
+        <v>0.4391891891891892</v>
       </c>
       <c r="H13" t="n">
-        <v>6620115.540000003</v>
+        <v>-853200.4800000002</v>
       </c>
       <c r="I13" t="n">
-        <v>2288339.490000001</v>
+        <v>-682272.0900000003</v>
       </c>
       <c r="J13" t="n">
-        <v>19.21623424999999</v>
+        <v>52.38345</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -994,40 +994,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B14" t="n">
-        <v>233</v>
+        <v>565</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0171222810111699</v>
+        <v>0.04151969429747208</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>144</v>
+        <v>515</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6180257510729614</v>
+        <v>0.911504424778761</v>
       </c>
       <c r="H14" t="n">
-        <v>5084589.585000001</v>
+        <v>416428368.75</v>
       </c>
       <c r="I14" t="n">
-        <v>3638034.975</v>
+        <v>379067107.83</v>
       </c>
       <c r="J14" t="n">
-        <v>55.99504475000001</v>
+        <v>81.72296287499999</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1035,34 +1035,34 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B15" t="n">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0119782480893592</v>
+        <v>0.0001469723691945914</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.754601226993865</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>66001156.5</v>
+        <v>2917878.509999999</v>
       </c>
       <c r="I15" t="n">
-        <v>52167107.25</v>
+        <v>2917878.509999999</v>
       </c>
       <c r="J15" t="n">
-        <v>54.26491312500001</v>
+        <v>28.78694512500002</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1076,37 +1076,37 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>641</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0008818342151675485</v>
+        <v>0.04710464432686655</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>406</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.6333853354134166</v>
       </c>
       <c r="H16" t="n">
-        <v>13771903.62</v>
+        <v>289859559.45</v>
       </c>
       <c r="I16" t="n">
-        <v>13771903.62</v>
+        <v>170941107.36</v>
       </c>
       <c r="J16" t="n">
-        <v>80.55050112500003</v>
+        <v>138.18924175</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1117,40 +1117,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B17" t="n">
-        <v>2861</v>
+        <v>147</v>
       </c>
       <c r="C17" t="n">
-        <v>0.210243974132863</v>
+        <v>0.01080246913580247</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>1814</v>
+        <v>138</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6340440405452639</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="H17" t="n">
-        <v>1039103367.99</v>
+        <v>116285038.77</v>
       </c>
       <c r="I17" t="n">
-        <v>733720735.5599999</v>
+        <v>110016955.26</v>
       </c>
       <c r="J17" t="n">
-        <v>76.44208862500001</v>
+        <v>59.25504537499999</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -1161,34 +1161,34 @@
         <v>241</v>
       </c>
       <c r="B18" t="n">
-        <v>1168</v>
+        <v>1783</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08583186360964139</v>
+        <v>0.1310258671369783</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>1123</v>
+        <v>1745</v>
       </c>
       <c r="G18" t="n">
-        <v>0.961472602739726</v>
+        <v>0.978687605159843</v>
       </c>
       <c r="H18" t="n">
-        <v>918968580.99</v>
+        <v>1641794019.525</v>
       </c>
       <c r="I18" t="n">
-        <v>887187485.4449999</v>
+        <v>1614933709.185</v>
       </c>
       <c r="J18" t="n">
-        <v>213.275465125</v>
+        <v>246.5012500000001</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>

--- a/results/facies_metrics.xlsx
+++ b/results/facies_metrics.xlsx
@@ -505,31 +505,31 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>399</v>
+        <v>236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02932098765432099</v>
+        <v>0.01734273956496179</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5037593984962406</v>
+        <v>0.8601694915254238</v>
       </c>
       <c r="H2" t="n">
-        <v>204404809.77</v>
+        <v>152473992.45</v>
       </c>
       <c r="I2" t="n">
-        <v>163315549.89</v>
+        <v>148085048.52</v>
       </c>
       <c r="J2" t="n">
-        <v>127.086025125</v>
+        <v>117.3624325</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -546,31 +546,31 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>1370</v>
+        <v>997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1006760728982951</v>
+        <v>0.07326572604350381</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="G3" t="n">
-        <v>0.362043795620438</v>
+        <v>0.4483450351053159</v>
       </c>
       <c r="H3" t="n">
-        <v>770489457.66</v>
+        <v>532834806.915</v>
       </c>
       <c r="I3" t="n">
-        <v>352048895.43</v>
+        <v>310417302.45</v>
       </c>
       <c r="J3" t="n">
-        <v>185.069852375</v>
+        <v>160.742222125</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -587,31 +587,31 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>816</v>
+        <v>1199</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05996472663139329</v>
+        <v>0.08810993533215755</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>312</v>
+        <v>668</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.5571309424520434</v>
       </c>
       <c r="H4" t="n">
-        <v>427804574.01</v>
+        <v>523319044.245</v>
       </c>
       <c r="I4" t="n">
-        <v>227724660.96</v>
+        <v>370725198.855</v>
       </c>
       <c r="J4" t="n">
-        <v>170.0192585</v>
+        <v>186.268323875</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -628,31 +628,31 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>412</v>
+        <v>498</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03027630805408583</v>
+        <v>0.03659611992945326</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>406</v>
+        <v>491</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9854368932038835</v>
+        <v>0.9859437751004017</v>
       </c>
       <c r="H5" t="n">
-        <v>509260913.1899999</v>
+        <v>467687020.755</v>
       </c>
       <c r="I5" t="n">
-        <v>501750919.3349999</v>
+        <v>457624512.825</v>
       </c>
       <c r="J5" t="n">
-        <v>205.329652375</v>
+        <v>183.58267825</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -669,31 +669,31 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009259259259259259</v>
+        <v>0.007642563198118754</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8095238095238095</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>105433637.22</v>
+        <v>92043152.86499999</v>
       </c>
       <c r="I6" t="n">
-        <v>90750911.47499999</v>
+        <v>92043152.86499999</v>
       </c>
       <c r="J6" t="n">
-        <v>140.491410875</v>
+        <v>136.701384</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -710,37 +710,37 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>888</v>
+        <v>115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06525573192239859</v>
+        <v>0.008450911228689007</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>291</v>
+        <v>58</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3277027027027027</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="H7" t="n">
-        <v>234776761.605</v>
+        <v>12348359.355</v>
       </c>
       <c r="I7" t="n">
-        <v>92170876.095</v>
+        <v>5868829.065</v>
       </c>
       <c r="J7" t="n">
-        <v>10.473847875</v>
+        <v>26.32299275</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -748,40 +748,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>5882</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4322457378012934</v>
+        <v>0.0002204585537918871</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>3024</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5141108466507991</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2413769935.215</v>
+        <v>-28775.54999999974</v>
       </c>
       <c r="I8" t="n">
-        <v>1497026210.1</v>
+        <v>-28775.54999999974</v>
       </c>
       <c r="J8" t="n">
-        <v>68.60252137499999</v>
+        <v>3.261130374999993</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -789,75 +789,75 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="n">
-        <v>109</v>
+        <v>5568</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008009994121105233</v>
+        <v>0.4091710758377425</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>94</v>
+        <v>5559</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8623853211009175</v>
+        <v>0.9983836206896551</v>
       </c>
       <c r="H9" t="n">
-        <v>94344537.72000001</v>
+        <v>1781886888.45</v>
       </c>
       <c r="I9" t="n">
-        <v>83287556.26500002</v>
+        <v>1779876960.33</v>
       </c>
       <c r="J9" t="n">
-        <v>105.287617375</v>
+        <v>155.96440275</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>363</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001396237507348618</v>
+        <v>0.02667548500881834</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>278</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.7658402203856749</v>
       </c>
       <c r="H10" t="n">
-        <v>42474340.12500001</v>
+        <v>241622702.94</v>
       </c>
       <c r="I10" t="n">
-        <v>42474340.12500001</v>
+        <v>204063287.145</v>
       </c>
       <c r="J10" t="n">
-        <v>12.54878299999999</v>
+        <v>141.556825875</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -871,40 +871,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01690182245737801</v>
+        <v>0.00102880658436214</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9347826086956522</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>103443516.495</v>
+        <v>22195235.04</v>
       </c>
       <c r="I11" t="n">
-        <v>95004176.44499999</v>
+        <v>22195235.04</v>
       </c>
       <c r="J11" t="n">
-        <v>67.28797049999999</v>
+        <v>7.681281249999984</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -912,34 +912,34 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="B12" t="n">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005217519106407996</v>
+        <v>0.002204585537918871</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5774647887323944</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>21447387.54</v>
+        <v>14517104.13</v>
       </c>
       <c r="I12" t="n">
-        <v>18412863.255</v>
+        <v>9116036.924999999</v>
       </c>
       <c r="J12" t="n">
-        <v>42.0050995</v>
+        <v>71.60508500000003</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -953,34 +953,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B13" t="n">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01087595532039977</v>
+        <v>0.003233392122281011</v>
       </c>
       <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
         <v>9</v>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
       <c r="F13" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4391891891891892</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="H13" t="n">
-        <v>-853200.4800000002</v>
+        <v>6280656.870000003</v>
       </c>
       <c r="I13" t="n">
-        <v>-682272.0900000003</v>
+        <v>2027772.570000001</v>
       </c>
       <c r="J13" t="n">
-        <v>52.38345</v>
+        <v>19.21623424999999</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -994,40 +994,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B14" t="n">
-        <v>565</v>
+        <v>233</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04151969429747208</v>
+        <v>0.0171222810111699</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>515</v>
+        <v>144</v>
       </c>
       <c r="G14" t="n">
-        <v>0.911504424778761</v>
+        <v>0.6180257510729614</v>
       </c>
       <c r="H14" t="n">
-        <v>416428368.75</v>
+        <v>-1399055.264999999</v>
       </c>
       <c r="I14" t="n">
-        <v>379067107.83</v>
+        <v>-860663.3849999991</v>
       </c>
       <c r="J14" t="n">
-        <v>81.72296287499999</v>
+        <v>55.99504475000001</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1035,34 +1035,34 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001469723691945914</v>
+        <v>0.0119782480893592</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.754601226993865</v>
       </c>
       <c r="H15" t="n">
-        <v>2917878.509999999</v>
+        <v>61068237.18</v>
       </c>
       <c r="I15" t="n">
-        <v>2917878.509999999</v>
+        <v>52167107.25</v>
       </c>
       <c r="J15" t="n">
-        <v>28.78694512500002</v>
+        <v>54.26491312500001</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1076,37 +1076,37 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="B16" t="n">
-        <v>641</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04710464432686655</v>
+        <v>0.0008818342151675485</v>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>406</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6333853354134166</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>289859559.45</v>
+        <v>13771903.62</v>
       </c>
       <c r="I16" t="n">
-        <v>170941107.36</v>
+        <v>13771903.62</v>
       </c>
       <c r="J16" t="n">
-        <v>138.18924175</v>
+        <v>80.55050112500003</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1117,40 +1117,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" t="n">
-        <v>147</v>
+        <v>2861</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01080246913580247</v>
+        <v>0.210243974132863</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>138</v>
+        <v>1814</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9387755102040817</v>
+        <v>0.6340440405452639</v>
       </c>
       <c r="H17" t="n">
-        <v>116285038.77</v>
+        <v>1031847329.34</v>
       </c>
       <c r="I17" t="n">
-        <v>110016955.26</v>
+        <v>733720735.5599999</v>
       </c>
       <c r="J17" t="n">
-        <v>59.25504537499999</v>
+        <v>76.44208862500001</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -1161,34 +1161,34 @@
         <v>241</v>
       </c>
       <c r="B18" t="n">
-        <v>1783</v>
+        <v>1168</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1310258671369783</v>
+        <v>0.08583186360964139</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1745</v>
+        <v>1123</v>
       </c>
       <c r="G18" t="n">
-        <v>0.978687605159843</v>
+        <v>0.961472602739726</v>
       </c>
       <c r="H18" t="n">
-        <v>1641794019.525</v>
+        <v>918802832.8200001</v>
       </c>
       <c r="I18" t="n">
-        <v>1614933709.185</v>
+        <v>887187485.4449999</v>
       </c>
       <c r="J18" t="n">
-        <v>246.5012500000001</v>
+        <v>213.275465125</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>

--- a/results/facies_metrics.xlsx
+++ b/results/facies_metrics.xlsx
@@ -505,31 +505,31 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>236</v>
+        <v>399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01734273956496179</v>
+        <v>0.02932098765432099</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8601694915254238</v>
+        <v>0.5037593984962406</v>
       </c>
       <c r="H2" t="n">
-        <v>152473992.45</v>
+        <v>204404809.77</v>
       </c>
       <c r="I2" t="n">
-        <v>148085048.52</v>
+        <v>163315549.89</v>
       </c>
       <c r="J2" t="n">
-        <v>117.3624325</v>
+        <v>127.086025125</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -546,31 +546,31 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>997</v>
+        <v>1370</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07326572604350381</v>
+        <v>0.1006760728982951</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4483450351053159</v>
+        <v>0.362043795620438</v>
       </c>
       <c r="H3" t="n">
-        <v>532834806.915</v>
+        <v>770489457.66</v>
       </c>
       <c r="I3" t="n">
-        <v>310417302.45</v>
+        <v>352048895.43</v>
       </c>
       <c r="J3" t="n">
-        <v>160.742222125</v>
+        <v>185.069852375</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -587,31 +587,31 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>1199</v>
+        <v>816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08810993533215755</v>
+        <v>0.05996472663139329</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>668</v>
+        <v>312</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5571309424520434</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="H4" t="n">
-        <v>523319044.245</v>
+        <v>427804574.01</v>
       </c>
       <c r="I4" t="n">
-        <v>370725198.855</v>
+        <v>227724660.96</v>
       </c>
       <c r="J4" t="n">
-        <v>186.268323875</v>
+        <v>170.0192585</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -628,31 +628,31 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>498</v>
+        <v>412</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03659611992945326</v>
+        <v>0.03027630805408583</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>491</v>
+        <v>406</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9859437751004017</v>
+        <v>0.9854368932038835</v>
       </c>
       <c r="H5" t="n">
-        <v>467687020.755</v>
+        <v>509260913.1899999</v>
       </c>
       <c r="I5" t="n">
-        <v>457624512.825</v>
+        <v>501750919.3349999</v>
       </c>
       <c r="J5" t="n">
-        <v>183.58267825</v>
+        <v>205.329652375</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -669,31 +669,31 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007642563198118754</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="H6" t="n">
-        <v>92043152.86499999</v>
+        <v>105433637.22</v>
       </c>
       <c r="I6" t="n">
-        <v>92043152.86499999</v>
+        <v>90750911.47499999</v>
       </c>
       <c r="J6" t="n">
-        <v>136.701384</v>
+        <v>140.491410875</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -710,37 +710,37 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>115</v>
+        <v>888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008450911228689007</v>
+        <v>0.06525573192239859</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>58</v>
+        <v>291</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5043478260869565</v>
+        <v>0.3277027027027027</v>
       </c>
       <c r="H7" t="n">
-        <v>12348359.355</v>
+        <v>234776761.605</v>
       </c>
       <c r="I7" t="n">
-        <v>5868829.065</v>
+        <v>92170876.095</v>
       </c>
       <c r="J7" t="n">
-        <v>26.32299275</v>
+        <v>10.473847875</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -748,40 +748,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5882</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002204585537918871</v>
+        <v>0.4322457378012934</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>3024</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.5141108466507991</v>
       </c>
       <c r="H8" t="n">
-        <v>-28775.54999999974</v>
+        <v>2413769935.215</v>
       </c>
       <c r="I8" t="n">
-        <v>-28775.54999999974</v>
+        <v>1497026210.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.261130374999993</v>
+        <v>68.60252137499999</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -789,75 +789,75 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>5568</v>
+        <v>109</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4091710758377425</v>
+        <v>0.008009994121105233</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>5559</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9983836206896551</v>
+        <v>0.8623853211009175</v>
       </c>
       <c r="H9" t="n">
-        <v>1781886888.45</v>
+        <v>94344537.72000001</v>
       </c>
       <c r="I9" t="n">
-        <v>1779876960.33</v>
+        <v>83287556.26500002</v>
       </c>
       <c r="J9" t="n">
-        <v>155.96440275</v>
+        <v>105.287617375</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02667548500881834</v>
+        <v>0.001396237507348618</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7658402203856749</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>241622702.94</v>
+        <v>42474340.12500001</v>
       </c>
       <c r="I10" t="n">
-        <v>204063287.145</v>
+        <v>42474340.12500001</v>
       </c>
       <c r="J10" t="n">
-        <v>141.556825875</v>
+        <v>12.54878299999999</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -871,40 +871,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00102880658436214</v>
+        <v>0.01690182245737801</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="H11" t="n">
-        <v>22195235.04</v>
+        <v>103443516.495</v>
       </c>
       <c r="I11" t="n">
-        <v>22195235.04</v>
+        <v>95004176.44499999</v>
       </c>
       <c r="J11" t="n">
-        <v>7.681281249999984</v>
+        <v>67.28797049999999</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -912,34 +912,34 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002204585537918871</v>
+        <v>0.005217519106407996</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="H12" t="n">
-        <v>14517104.13</v>
+        <v>21447387.54</v>
       </c>
       <c r="I12" t="n">
-        <v>9116036.924999999</v>
+        <v>18412863.255</v>
       </c>
       <c r="J12" t="n">
-        <v>71.60508500000003</v>
+        <v>42.0050995</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -953,34 +953,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B13" t="n">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003233392122281011</v>
+        <v>0.01087595532039977</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3409090909090909</v>
+        <v>0.4391891891891892</v>
       </c>
       <c r="H13" t="n">
-        <v>6280656.870000003</v>
+        <v>-853200.4800000002</v>
       </c>
       <c r="I13" t="n">
-        <v>2027772.570000001</v>
+        <v>-682272.0900000003</v>
       </c>
       <c r="J13" t="n">
-        <v>19.21623424999999</v>
+        <v>52.38345</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -994,40 +994,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B14" t="n">
-        <v>233</v>
+        <v>565</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0171222810111699</v>
+        <v>0.04151969429747208</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>144</v>
+        <v>515</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6180257510729614</v>
+        <v>0.911504424778761</v>
       </c>
       <c r="H14" t="n">
-        <v>-1399055.264999999</v>
+        <v>416428368.75</v>
       </c>
       <c r="I14" t="n">
-        <v>-860663.3849999991</v>
+        <v>379067107.83</v>
       </c>
       <c r="J14" t="n">
-        <v>55.99504475000001</v>
+        <v>81.72296287499999</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1035,34 +1035,34 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B15" t="n">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0119782480893592</v>
+        <v>0.0001469723691945914</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.754601226993865</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>61068237.18</v>
+        <v>2917878.509999999</v>
       </c>
       <c r="I15" t="n">
-        <v>52167107.25</v>
+        <v>2917878.509999999</v>
       </c>
       <c r="J15" t="n">
-        <v>54.26491312500001</v>
+        <v>28.78694512500002</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1076,37 +1076,37 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>641</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0008818342151675485</v>
+        <v>0.04710464432686655</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>406</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.6333853354134166</v>
       </c>
       <c r="H16" t="n">
-        <v>13771903.62</v>
+        <v>289859559.45</v>
       </c>
       <c r="I16" t="n">
-        <v>13771903.62</v>
+        <v>170941107.36</v>
       </c>
       <c r="J16" t="n">
-        <v>80.55050112500003</v>
+        <v>138.18924175</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1117,40 +1117,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B17" t="n">
-        <v>2861</v>
+        <v>147</v>
       </c>
       <c r="C17" t="n">
-        <v>0.210243974132863</v>
+        <v>0.01080246913580247</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>1814</v>
+        <v>138</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6340440405452639</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="H17" t="n">
-        <v>1031847329.34</v>
+        <v>116285038.77</v>
       </c>
       <c r="I17" t="n">
-        <v>733720735.5599999</v>
+        <v>110016955.26</v>
       </c>
       <c r="J17" t="n">
-        <v>76.44208862500001</v>
+        <v>59.25504537499999</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -1161,34 +1161,34 @@
         <v>241</v>
       </c>
       <c r="B18" t="n">
-        <v>1168</v>
+        <v>1783</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08583186360964139</v>
+        <v>0.1310258671369783</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>1123</v>
+        <v>1745</v>
       </c>
       <c r="G18" t="n">
-        <v>0.961472602739726</v>
+        <v>0.978687605159843</v>
       </c>
       <c r="H18" t="n">
-        <v>918802832.8200001</v>
+        <v>1641794019.525</v>
       </c>
       <c r="I18" t="n">
-        <v>887187485.4449999</v>
+        <v>1614933709.185</v>
       </c>
       <c r="J18" t="n">
-        <v>213.275465125</v>
+        <v>246.5012500000001</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>

--- a/results/facies_metrics.xlsx
+++ b/results/facies_metrics.xlsx
@@ -523,10 +523,10 @@
         <v>0.5037593984962406</v>
       </c>
       <c r="H2" t="n">
-        <v>204404809.77</v>
+        <v>-204404809.77</v>
       </c>
       <c r="I2" t="n">
-        <v>163315549.89</v>
+        <v>-163315549.89</v>
       </c>
       <c r="J2" t="n">
         <v>127.086025125</v>
@@ -564,10 +564,10 @@
         <v>0.362043795620438</v>
       </c>
       <c r="H3" t="n">
-        <v>770489457.66</v>
+        <v>-770489457.66</v>
       </c>
       <c r="I3" t="n">
-        <v>352048895.43</v>
+        <v>-352048895.43</v>
       </c>
       <c r="J3" t="n">
         <v>185.069852375</v>
@@ -605,10 +605,10 @@
         <v>0.3823529411764706</v>
       </c>
       <c r="H4" t="n">
-        <v>427804574.01</v>
+        <v>-427804574.01</v>
       </c>
       <c r="I4" t="n">
-        <v>227724660.96</v>
+        <v>-227724660.96</v>
       </c>
       <c r="J4" t="n">
         <v>170.0192585</v>
@@ -646,10 +646,10 @@
         <v>0.9854368932038835</v>
       </c>
       <c r="H5" t="n">
-        <v>509260913.1899999</v>
+        <v>-509260913.1899999</v>
       </c>
       <c r="I5" t="n">
-        <v>501750919.3349999</v>
+        <v>-501750919.3349999</v>
       </c>
       <c r="J5" t="n">
         <v>205.329652375</v>
@@ -687,10 +687,10 @@
         <v>0.8095238095238095</v>
       </c>
       <c r="H6" t="n">
-        <v>105433637.22</v>
+        <v>-105433637.22</v>
       </c>
       <c r="I6" t="n">
-        <v>90750911.47499999</v>
+        <v>-90750911.47499999</v>
       </c>
       <c r="J6" t="n">
         <v>140.491410875</v>
@@ -728,10 +728,10 @@
         <v>0.3277027027027027</v>
       </c>
       <c r="H7" t="n">
-        <v>234776761.605</v>
+        <v>-234776761.605</v>
       </c>
       <c r="I7" t="n">
-        <v>92170876.095</v>
+        <v>-92170876.095</v>
       </c>
       <c r="J7" t="n">
         <v>10.473847875</v>
@@ -769,10 +769,10 @@
         <v>0.5141108466507991</v>
       </c>
       <c r="H8" t="n">
-        <v>2413769935.215</v>
+        <v>-2413769935.215</v>
       </c>
       <c r="I8" t="n">
-        <v>1497026210.1</v>
+        <v>-1497026210.1</v>
       </c>
       <c r="J8" t="n">
         <v>68.60252137499999</v>
@@ -810,10 +810,10 @@
         <v>0.8623853211009175</v>
       </c>
       <c r="H9" t="n">
-        <v>94344537.72000001</v>
+        <v>-94344537.72000001</v>
       </c>
       <c r="I9" t="n">
-        <v>83287556.26500002</v>
+        <v>-83287556.26500002</v>
       </c>
       <c r="J9" t="n">
         <v>105.287617375</v>
@@ -851,10 +851,10 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>42474340.12500001</v>
+        <v>-42474340.12500001</v>
       </c>
       <c r="I10" t="n">
-        <v>42474340.12500001</v>
+        <v>-42474340.12500001</v>
       </c>
       <c r="J10" t="n">
         <v>12.54878299999999</v>
@@ -892,10 +892,10 @@
         <v>0.9347826086956522</v>
       </c>
       <c r="H11" t="n">
-        <v>103443516.495</v>
+        <v>-103443516.495</v>
       </c>
       <c r="I11" t="n">
-        <v>95004176.44499999</v>
+        <v>-95004176.44499999</v>
       </c>
       <c r="J11" t="n">
         <v>67.28797049999999</v>
@@ -933,10 +933,10 @@
         <v>0.5774647887323944</v>
       </c>
       <c r="H12" t="n">
-        <v>21447387.54</v>
+        <v>-21447387.54</v>
       </c>
       <c r="I12" t="n">
-        <v>18412863.255</v>
+        <v>-18412863.255</v>
       </c>
       <c r="J12" t="n">
         <v>42.0050995</v>
@@ -974,10 +974,10 @@
         <v>0.4391891891891892</v>
       </c>
       <c r="H13" t="n">
-        <v>-853200.4800000002</v>
+        <v>853200.4800000002</v>
       </c>
       <c r="I13" t="n">
-        <v>-682272.0900000003</v>
+        <v>682272.0900000003</v>
       </c>
       <c r="J13" t="n">
         <v>52.38345</v>
@@ -1015,10 +1015,10 @@
         <v>0.911504424778761</v>
       </c>
       <c r="H14" t="n">
-        <v>416428368.75</v>
+        <v>-416428368.75</v>
       </c>
       <c r="I14" t="n">
-        <v>379067107.83</v>
+        <v>-379067107.83</v>
       </c>
       <c r="J14" t="n">
         <v>81.72296287499999</v>
@@ -1056,10 +1056,10 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>2917878.509999999</v>
+        <v>-2917878.509999999</v>
       </c>
       <c r="I15" t="n">
-        <v>2917878.509999999</v>
+        <v>-2917878.509999999</v>
       </c>
       <c r="J15" t="n">
         <v>28.78694512500002</v>
@@ -1097,10 +1097,10 @@
         <v>0.6333853354134166</v>
       </c>
       <c r="H16" t="n">
-        <v>289859559.45</v>
+        <v>-289859559.45</v>
       </c>
       <c r="I16" t="n">
-        <v>170941107.36</v>
+        <v>-170941107.36</v>
       </c>
       <c r="J16" t="n">
         <v>138.18924175</v>
@@ -1138,10 +1138,10 @@
         <v>0.9387755102040817</v>
       </c>
       <c r="H17" t="n">
-        <v>116285038.77</v>
+        <v>-116285038.77</v>
       </c>
       <c r="I17" t="n">
-        <v>110016955.26</v>
+        <v>-110016955.26</v>
       </c>
       <c r="J17" t="n">
         <v>59.25504537499999</v>
@@ -1179,10 +1179,10 @@
         <v>0.978687605159843</v>
       </c>
       <c r="H18" t="n">
-        <v>1641794019.525</v>
+        <v>-1641794019.525</v>
       </c>
       <c r="I18" t="n">
-        <v>1614933709.185</v>
+        <v>-1614933709.185</v>
       </c>
       <c r="J18" t="n">
         <v>246.5012500000001</v>

--- a/results/facies_metrics.xlsx
+++ b/results/facies_metrics.xlsx
@@ -523,10 +523,10 @@
         <v>0.5037593984962406</v>
       </c>
       <c r="H2" t="n">
-        <v>-204404809.77</v>
+        <v>204488643.39</v>
       </c>
       <c r="I2" t="n">
-        <v>-163315549.89</v>
+        <v>163315549.89</v>
       </c>
       <c r="J2" t="n">
         <v>127.086025125</v>
@@ -564,10 +564,10 @@
         <v>0.362043795620438</v>
       </c>
       <c r="H3" t="n">
-        <v>-770489457.66</v>
+        <v>770687793.27</v>
       </c>
       <c r="I3" t="n">
-        <v>-352048895.43</v>
+        <v>352155493.02</v>
       </c>
       <c r="J3" t="n">
         <v>185.069852375</v>
@@ -605,10 +605,10 @@
         <v>0.3823529411764706</v>
       </c>
       <c r="H4" t="n">
-        <v>-427804574.01</v>
+        <v>431134883.49</v>
       </c>
       <c r="I4" t="n">
-        <v>-227724660.96</v>
+        <v>229382516.16</v>
       </c>
       <c r="J4" t="n">
         <v>170.0192585</v>
@@ -646,10 +646,10 @@
         <v>0.9854368932038835</v>
       </c>
       <c r="H5" t="n">
-        <v>-509260913.1899999</v>
+        <v>509260913.1899999</v>
       </c>
       <c r="I5" t="n">
-        <v>-501750919.3349999</v>
+        <v>501750919.3349999</v>
       </c>
       <c r="J5" t="n">
         <v>205.329652375</v>
@@ -687,10 +687,10 @@
         <v>0.8095238095238095</v>
       </c>
       <c r="H6" t="n">
-        <v>-105433637.22</v>
+        <v>105433637.22</v>
       </c>
       <c r="I6" t="n">
-        <v>-90750911.47499999</v>
+        <v>90750911.47499999</v>
       </c>
       <c r="J6" t="n">
         <v>140.491410875</v>
@@ -728,10 +728,10 @@
         <v>0.3277027027027027</v>
       </c>
       <c r="H7" t="n">
-        <v>-234776761.605</v>
+        <v>235865426.025</v>
       </c>
       <c r="I7" t="n">
-        <v>-92170876.095</v>
+        <v>92176702.545</v>
       </c>
       <c r="J7" t="n">
         <v>10.473847875</v>
@@ -769,10 +769,10 @@
         <v>0.5141108466507991</v>
       </c>
       <c r="H8" t="n">
-        <v>-2413769935.215</v>
+        <v>2418434346.855</v>
       </c>
       <c r="I8" t="n">
-        <v>-1497026210.1</v>
+        <v>1497070397.64</v>
       </c>
       <c r="J8" t="n">
         <v>68.60252137499999</v>
@@ -810,10 +810,10 @@
         <v>0.8623853211009175</v>
       </c>
       <c r="H9" t="n">
-        <v>-94344537.72000001</v>
+        <v>94344537.72000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-83287556.26500002</v>
+        <v>83287556.26500002</v>
       </c>
       <c r="J9" t="n">
         <v>105.287617375</v>
@@ -851,10 +851,10 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>-42474340.12500001</v>
+        <v>42474340.12500001</v>
       </c>
       <c r="I10" t="n">
-        <v>-42474340.12500001</v>
+        <v>42474340.12500001</v>
       </c>
       <c r="J10" t="n">
         <v>12.54878299999999</v>
@@ -892,10 +892,10 @@
         <v>0.9347826086956522</v>
       </c>
       <c r="H11" t="n">
-        <v>-103443516.495</v>
+        <v>103857275.775</v>
       </c>
       <c r="I11" t="n">
-        <v>-95004176.44499999</v>
+        <v>95004176.44499999</v>
       </c>
       <c r="J11" t="n">
         <v>67.28797049999999</v>
@@ -933,10 +933,10 @@
         <v>0.5774647887323944</v>
       </c>
       <c r="H12" t="n">
-        <v>-21447387.54</v>
+        <v>21548752.23</v>
       </c>
       <c r="I12" t="n">
-        <v>-18412863.255</v>
+        <v>18412863.255</v>
       </c>
       <c r="J12" t="n">
         <v>42.0050995</v>
@@ -974,10 +974,10 @@
         <v>0.4391891891891892</v>
       </c>
       <c r="H13" t="n">
-        <v>853200.4800000002</v>
+        <v>2304943.02</v>
       </c>
       <c r="I13" t="n">
-        <v>682272.0900000003</v>
+        <v>1526838.900000001</v>
       </c>
       <c r="J13" t="n">
         <v>52.38345</v>
@@ -1015,10 +1015,10 @@
         <v>0.911504424778761</v>
       </c>
       <c r="H14" t="n">
-        <v>-416428368.75</v>
+        <v>419163608.0700001</v>
       </c>
       <c r="I14" t="n">
-        <v>-379067107.83</v>
+        <v>379067107.83</v>
       </c>
       <c r="J14" t="n">
         <v>81.72296287499999</v>
@@ -1056,10 +1056,10 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>-2917878.509999999</v>
+        <v>2917878.509999999</v>
       </c>
       <c r="I15" t="n">
-        <v>-2917878.509999999</v>
+        <v>2917878.509999999</v>
       </c>
       <c r="J15" t="n">
         <v>28.78694512500002</v>
@@ -1097,10 +1097,10 @@
         <v>0.6333853354134166</v>
       </c>
       <c r="H16" t="n">
-        <v>-289859559.45</v>
+        <v>292096853.64</v>
       </c>
       <c r="I16" t="n">
-        <v>-170941107.36</v>
+        <v>173178401.55</v>
       </c>
       <c r="J16" t="n">
         <v>138.18924175</v>
@@ -1138,10 +1138,10 @@
         <v>0.9387755102040817</v>
       </c>
       <c r="H17" t="n">
-        <v>-116285038.77</v>
+        <v>116285038.77</v>
       </c>
       <c r="I17" t="n">
-        <v>-110016955.26</v>
+        <v>110016955.26</v>
       </c>
       <c r="J17" t="n">
         <v>59.25504537499999</v>
@@ -1179,10 +1179,10 @@
         <v>0.978687605159843</v>
       </c>
       <c r="H18" t="n">
-        <v>-1641794019.525</v>
+        <v>1641794019.525</v>
       </c>
       <c r="I18" t="n">
-        <v>-1614933709.185</v>
+        <v>1614933709.185</v>
       </c>
       <c r="J18" t="n">
         <v>246.5012500000001</v>

--- a/results/facies_metrics.xlsx
+++ b/results/facies_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,13 +505,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02932098765432099</v>
+        <v>0.03218694885361552</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -520,16 +520,16 @@
         <v>201</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5037593984962406</v>
+        <v>0.4589041095890411</v>
       </c>
       <c r="H2" t="n">
-        <v>204488643.39</v>
+        <v>204857912.811</v>
       </c>
       <c r="I2" t="n">
-        <v>163315549.89</v>
+        <v>163315545.6885</v>
       </c>
       <c r="J2" t="n">
-        <v>127.086025125</v>
+        <v>127.086025</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -546,31 +546,31 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>1370</v>
+        <v>1387</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1006760728982951</v>
+        <v>0.1019253380364492</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="G3" t="n">
-        <v>0.362043795620438</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="H3" t="n">
-        <v>770687793.27</v>
+        <v>771431358.4853849</v>
       </c>
       <c r="I3" t="n">
-        <v>352155493.02</v>
+        <v>352818094.38</v>
       </c>
       <c r="J3" t="n">
-        <v>185.069852375</v>
+        <v>185.06985275</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -587,31 +587,31 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>816</v>
+        <v>762</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05996472663139329</v>
+        <v>0.05599647266313933</v>
       </c>
       <c r="D4" t="n">
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.4081364829396326</v>
       </c>
       <c r="H4" t="n">
-        <v>431134883.49</v>
+        <v>425840753.8365</v>
       </c>
       <c r="I4" t="n">
-        <v>229382516.16</v>
+        <v>229958725.005</v>
       </c>
       <c r="J4" t="n">
-        <v>170.0192585</v>
+        <v>170.019259125</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -646,13 +646,13 @@
         <v>0.9854368932038835</v>
       </c>
       <c r="H5" t="n">
-        <v>509260913.1899999</v>
+        <v>509260906.575</v>
       </c>
       <c r="I5" t="n">
-        <v>501750919.3349999</v>
+        <v>501750911.175</v>
       </c>
       <c r="J5" t="n">
-        <v>205.329652375</v>
+        <v>205.329650625</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0.8095238095238095</v>
       </c>
       <c r="H6" t="n">
-        <v>105433637.22</v>
+        <v>105433635.33</v>
       </c>
       <c r="I6" t="n">
-        <v>90750911.47499999</v>
+        <v>90750909.45</v>
       </c>
       <c r="J6" t="n">
-        <v>140.491410875</v>
+        <v>140.4914078749999</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -710,31 +710,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>888</v>
+        <v>969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06525573192239859</v>
+        <v>0.07120811287477954</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>291</v>
+        <v>528</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3277027027027027</v>
+        <v>0.544891640866873</v>
       </c>
       <c r="H7" t="n">
-        <v>235865426.025</v>
+        <v>237427105.5648</v>
       </c>
       <c r="I7" t="n">
-        <v>92176702.545</v>
+        <v>128865163.7757</v>
       </c>
       <c r="J7" t="n">
-        <v>10.473847875</v>
+        <v>60.270532875</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -748,40 +748,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>5882</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4322457378012934</v>
+        <v>7.348618459729571e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>3024</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5141108466507991</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2418434346.855</v>
+        <v>45725.83499999999</v>
       </c>
       <c r="I8" t="n">
-        <v>1497070397.64</v>
+        <v>45725.83499999999</v>
       </c>
       <c r="J8" t="n">
-        <v>68.60252137499999</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -789,40 +789,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="n">
-        <v>109</v>
+        <v>5919</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008009994121105233</v>
+        <v>0.4349647266313933</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>94</v>
+        <v>3031</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8623853211009175</v>
+        <v>0.5120797431998648</v>
       </c>
       <c r="H9" t="n">
-        <v>94344537.72000001</v>
+        <v>2420117969.054418</v>
       </c>
       <c r="I9" t="n">
-        <v>83287556.26500002</v>
+        <v>1497109798.695018</v>
       </c>
       <c r="J9" t="n">
-        <v>105.287617375</v>
+        <v>68.60252065</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -830,34 +830,34 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001396237507348618</v>
+        <v>0.003233392122281011</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="H10" t="n">
-        <v>42474340.12500001</v>
+        <v>37696575.45000001</v>
       </c>
       <c r="I10" t="n">
-        <v>42474340.12500001</v>
+        <v>16603953.75</v>
       </c>
       <c r="J10" t="n">
-        <v>12.54878299999999</v>
+        <v>66.64577500000001</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -871,40 +871,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01690182245737801</v>
+        <v>0.001396237507348618</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9347826086956522</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>103857275.775</v>
+        <v>42474344.99999999</v>
       </c>
       <c r="I11" t="n">
-        <v>95004176.44499999</v>
+        <v>42474344.99999999</v>
       </c>
       <c r="J11" t="n">
-        <v>67.28797049999999</v>
+        <v>12.54877875</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -912,40 +912,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="B12" t="n">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005217519106407996</v>
+        <v>0.01690182245737801</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5774647887323944</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="H12" t="n">
-        <v>21548752.23</v>
+        <v>103857281.49</v>
       </c>
       <c r="I12" t="n">
-        <v>18412863.255</v>
+        <v>95004179.91</v>
       </c>
       <c r="J12" t="n">
-        <v>42.0050995</v>
+        <v>67.28797</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -953,34 +953,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B13" t="n">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01087595532039977</v>
+        <v>0.00720164609053498</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4391891891891892</v>
+        <v>0.4183673469387755</v>
       </c>
       <c r="H13" t="n">
-        <v>2304943.02</v>
+        <v>21877014.117</v>
       </c>
       <c r="I13" t="n">
-        <v>1526838.900000001</v>
+        <v>18412862.97</v>
       </c>
       <c r="J13" t="n">
-        <v>52.38345</v>
+        <v>42.005100375</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -994,40 +994,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B14" t="n">
-        <v>565</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04151969429747208</v>
+        <v>0.0005878894767783657</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>515</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.911504424778761</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
-        <v>419163608.0700001</v>
+        <v>5249207.310000001</v>
       </c>
       <c r="I14" t="n">
-        <v>379067107.83</v>
+        <v>2611079.295000001</v>
       </c>
       <c r="J14" t="n">
-        <v>81.72296287499999</v>
+        <v>4.338714500000002</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1035,40 +1035,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>556</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001469723691945914</v>
+        <v>0.04085831863609642</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>513</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.9226618705035972</v>
       </c>
       <c r="H15" t="n">
-        <v>2917878.509999999</v>
+        <v>416735618.415</v>
       </c>
       <c r="I15" t="n">
-        <v>2917878.509999999</v>
+        <v>376971668.655</v>
       </c>
       <c r="J15" t="n">
-        <v>28.78694512500002</v>
+        <v>81.72296249999999</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -1076,37 +1076,37 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="B16" t="n">
-        <v>641</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04710464432686655</v>
+        <v>0.0001469723691945914</v>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6333853354134166</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>292096853.64</v>
+        <v>2917879.350000001</v>
       </c>
       <c r="I16" t="n">
-        <v>173178401.55</v>
+        <v>2917879.350000001</v>
       </c>
       <c r="J16" t="n">
-        <v>138.18924175</v>
+        <v>28.78694375000001</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1117,37 +1117,37 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" t="n">
-        <v>147</v>
+        <v>375</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01080246913580247</v>
+        <v>0.02755731922398589</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9387755102040817</v>
+        <v>0.896</v>
       </c>
       <c r="H17" t="n">
-        <v>116285038.77</v>
+        <v>141345794.88</v>
       </c>
       <c r="I17" t="n">
-        <v>110016955.26</v>
+        <v>124832576.265</v>
       </c>
       <c r="J17" t="n">
-        <v>59.25504537499999</v>
+        <v>138.189242375</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1158,42 +1158,83 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>232</v>
+      </c>
+      <c r="B18" t="n">
+        <v>170</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01249265138154027</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>170</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>131594012.025</v>
+      </c>
+      <c r="I18" t="n">
+        <v>131594012.025</v>
+      </c>
+      <c r="J18" t="n">
+        <v>59.25504524999999</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>241</v>
       </c>
-      <c r="B18" t="n">
-        <v>1783</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1310258671369783</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1745</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.978687605159843</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1641794019.525</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1614933709.185</v>
-      </c>
-      <c r="J18" t="n">
-        <v>246.5012500000001</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" t="b">
+      <c r="B19" t="n">
+        <v>2092</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1537330981775426</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2083</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.995697896749522</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1833929798.6994</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1825099174.1694</v>
+      </c>
+      <c r="J19" t="n">
+        <v>246.50124866625</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
         <v>0</v>
       </c>
     </row>

--- a/results/facies_metrics.xlsx
+++ b/results/facies_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,13 +505,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03218694885361552</v>
+        <v>0.02932098765432099</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -520,16 +520,16 @@
         <v>201</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4589041095890411</v>
+        <v>0.5037593984962406</v>
       </c>
       <c r="H2" t="n">
-        <v>204857912.811</v>
+        <v>204488643.39</v>
       </c>
       <c r="I2" t="n">
-        <v>163315545.6885</v>
+        <v>163315549.89</v>
       </c>
       <c r="J2" t="n">
-        <v>127.086025</v>
+        <v>127.086025125</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -546,31 +546,31 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>1387</v>
+        <v>1370</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1019253380364492</v>
+        <v>0.1006760728982951</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.362043795620438</v>
       </c>
       <c r="H3" t="n">
-        <v>771431358.4853849</v>
+        <v>770687793.27</v>
       </c>
       <c r="I3" t="n">
-        <v>352818094.38</v>
+        <v>352155493.02</v>
       </c>
       <c r="J3" t="n">
-        <v>185.06985275</v>
+        <v>185.069852375</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -587,31 +587,31 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>762</v>
+        <v>816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05599647266313933</v>
+        <v>0.05996472663139329</v>
       </c>
       <c r="D4" t="n">
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4081364829396326</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="H4" t="n">
-        <v>425840753.8365</v>
+        <v>431134883.49</v>
       </c>
       <c r="I4" t="n">
-        <v>229958725.005</v>
+        <v>229382516.16</v>
       </c>
       <c r="J4" t="n">
-        <v>170.019259125</v>
+        <v>170.0192585</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -646,13 +646,13 @@
         <v>0.9854368932038835</v>
       </c>
       <c r="H5" t="n">
-        <v>509260906.575</v>
+        <v>509260913.1899999</v>
       </c>
       <c r="I5" t="n">
-        <v>501750911.175</v>
+        <v>501750919.3349999</v>
       </c>
       <c r="J5" t="n">
-        <v>205.329650625</v>
+        <v>205.329652375</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0.8095238095238095</v>
       </c>
       <c r="H6" t="n">
-        <v>105433635.33</v>
+        <v>105433637.22</v>
       </c>
       <c r="I6" t="n">
-        <v>90750909.45</v>
+        <v>90750911.47499999</v>
       </c>
       <c r="J6" t="n">
-        <v>140.4914078749999</v>
+        <v>140.491410875</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -710,31 +710,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>969</v>
+        <v>888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07120811287477954</v>
+        <v>0.06525573192239859</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>528</v>
+        <v>291</v>
       </c>
       <c r="G7" t="n">
-        <v>0.544891640866873</v>
+        <v>0.3277027027027027</v>
       </c>
       <c r="H7" t="n">
-        <v>237427105.5648</v>
+        <v>235865426.025</v>
       </c>
       <c r="I7" t="n">
-        <v>128865163.7757</v>
+        <v>92176702.545</v>
       </c>
       <c r="J7" t="n">
-        <v>60.270532875</v>
+        <v>10.473847875</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -748,40 +748,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>5882</v>
       </c>
       <c r="C8" t="n">
-        <v>7.348618459729571e-05</v>
+        <v>0.4322457378012934</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>3024</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.5141108466507991</v>
       </c>
       <c r="H8" t="n">
-        <v>45725.83499999999</v>
+        <v>2418434346.855</v>
       </c>
       <c r="I8" t="n">
-        <v>45725.83499999999</v>
+        <v>1497070397.64</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>68.60252137499999</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -789,40 +789,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>5919</v>
+        <v>109</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4349647266313933</v>
+        <v>0.008009994121105233</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>3031</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5120797431998648</v>
+        <v>0.8623853211009175</v>
       </c>
       <c r="H9" t="n">
-        <v>2420117969.054418</v>
+        <v>94344537.72000001</v>
       </c>
       <c r="I9" t="n">
-        <v>1497109798.695018</v>
+        <v>83287556.26500002</v>
       </c>
       <c r="J9" t="n">
-        <v>68.60252065</v>
+        <v>105.287617375</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -830,34 +830,34 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003233392122281011</v>
+        <v>0.001396237507348618</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3409090909090909</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>37696575.45000001</v>
+        <v>42474340.12500001</v>
       </c>
       <c r="I10" t="n">
-        <v>16603953.75</v>
+        <v>42474340.12500001</v>
       </c>
       <c r="J10" t="n">
-        <v>66.64577500000001</v>
+        <v>12.54878299999999</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -871,40 +871,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001396237507348618</v>
+        <v>0.01690182245737801</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="H11" t="n">
-        <v>42474344.99999999</v>
+        <v>103857275.775</v>
       </c>
       <c r="I11" t="n">
-        <v>42474344.99999999</v>
+        <v>95004176.44499999</v>
       </c>
       <c r="J11" t="n">
-        <v>12.54877875</v>
+        <v>67.28797049999999</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -912,40 +912,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B12" t="n">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01690182245737801</v>
+        <v>0.005217519106407996</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="H12" t="n">
-        <v>103857281.49</v>
+        <v>21548752.23</v>
       </c>
       <c r="I12" t="n">
-        <v>95004179.91</v>
+        <v>18412863.255</v>
       </c>
       <c r="J12" t="n">
-        <v>67.28797</v>
+        <v>42.0050995</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -953,34 +953,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B13" t="n">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00720164609053498</v>
+        <v>0.01087595532039977</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4183673469387755</v>
+        <v>0.4391891891891892</v>
       </c>
       <c r="H13" t="n">
-        <v>21877014.117</v>
+        <v>2304943.02</v>
       </c>
       <c r="I13" t="n">
-        <v>18412862.97</v>
+        <v>1526838.900000001</v>
       </c>
       <c r="J13" t="n">
-        <v>42.005100375</v>
+        <v>52.38345</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -994,40 +994,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>565</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005878894767783657</v>
+        <v>0.04151969429747208</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>515</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0.911504424778761</v>
       </c>
       <c r="H14" t="n">
-        <v>5249207.310000001</v>
+        <v>419163608.0700001</v>
       </c>
       <c r="I14" t="n">
-        <v>2611079.295000001</v>
+        <v>379067107.83</v>
       </c>
       <c r="J14" t="n">
-        <v>4.338714500000002</v>
+        <v>81.72296287499999</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1035,40 +1035,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B15" t="n">
-        <v>556</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04085831863609642</v>
+        <v>0.0001469723691945914</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9226618705035972</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>416735618.415</v>
+        <v>2917878.509999999</v>
       </c>
       <c r="I15" t="n">
-        <v>376971668.655</v>
+        <v>2917878.509999999</v>
       </c>
       <c r="J15" t="n">
-        <v>81.72296249999999</v>
+        <v>28.78694512500002</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -1076,37 +1076,37 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>641</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001469723691945914</v>
+        <v>0.04710464432686655</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>406</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.6333853354134166</v>
       </c>
       <c r="H16" t="n">
-        <v>2917879.350000001</v>
+        <v>292096853.64</v>
       </c>
       <c r="I16" t="n">
-        <v>2917879.350000001</v>
+        <v>173178401.55</v>
       </c>
       <c r="J16" t="n">
-        <v>28.78694375000001</v>
+        <v>138.18924175</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1117,37 +1117,37 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B17" t="n">
-        <v>375</v>
+        <v>147</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02755731922398589</v>
+        <v>0.01080246913580247</v>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>336</v>
+        <v>138</v>
       </c>
       <c r="G17" t="n">
-        <v>0.896</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="H17" t="n">
-        <v>141345794.88</v>
+        <v>116285038.77</v>
       </c>
       <c r="I17" t="n">
-        <v>124832576.265</v>
+        <v>110016955.26</v>
       </c>
       <c r="J17" t="n">
-        <v>138.189242375</v>
+        <v>59.25504537499999</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1158,83 +1158,42 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B18" t="n">
-        <v>170</v>
+        <v>1783</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01249265138154027</v>
+        <v>0.1310258671369783</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>170</v>
+        <v>1745</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.978687605159843</v>
       </c>
       <c r="H18" t="n">
-        <v>131594012.025</v>
+        <v>1641794019.525</v>
       </c>
       <c r="I18" t="n">
-        <v>131594012.025</v>
+        <v>1614933709.185</v>
       </c>
       <c r="J18" t="n">
-        <v>59.25504524999999</v>
+        <v>246.5012500000001</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
       </c>
       <c r="M18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>241</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2092</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1537330981775426</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2083</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.995697896749522</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1833929798.6994</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1825099174.1694</v>
-      </c>
-      <c r="J19" t="n">
-        <v>246.50124866625</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" t="b">
         <v>0</v>
       </c>
     </row>
